--- a/TestData/Test Data.xlsx
+++ b/TestData/Test Data.xlsx
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -44,90 +44,47 @@
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -344,9 +301,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.63"/>
-    <col customWidth="1" min="2" max="2" width="16.5"/>
-    <col customWidth="1" min="3" max="3" width="18.38"/>
+    <col customWidth="1" min="1" max="1" width="17.0"/>
+    <col customWidth="1" min="2" max="2" width="14.63"/>
+    <col customWidth="1" min="3" max="3" width="17.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -356,42 +313,32 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>123456.0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4">
-        <v>1234567.0</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="2">
+        <v>123456.0</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9"/>
+      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
